--- a/fixed/10V_regulator/278nm_ELUC3535NUB_16mA/production/ver_0p1_rev_1/CPL_JLCPCB_278nm_ELUC3535NUB_16mA.xlsx
+++ b/fixed/10V_regulator/278nm_ELUC3535NUB_16mA/production/ver_0p1_rev_1/CPL_JLCPCB_278nm_ELUC3535NUB_16mA.xlsx
@@ -232,7 +232,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,10 +354,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>65.4542</v>
+        <v>65.75</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>-54.3052</v>
+        <v>-54.2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
